--- a/biology/Botanique/Caesalpinia/Caesalpinia.xlsx
+++ b/biology/Botanique/Caesalpinia/Caesalpinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caesalpinia est un genre végétal de la famille des Caesalpiniaceae selon la classification classique, ou des Fabaceae (sous-famille des Caesalpinioideae) selon la classification phylogénétique.
-Plusieurs espèces ont été transférées en 2016 dans les genres Biancaea, Cenostigma, Coulteria, Denisophytum, Erythrostemon, Gelrebia, Guilandina, Hoffmannseggia, Libidibia, Mezoneuron, Paubrasilia, Pomaria et Tara[1]. Le nombre d'espèces et la description de ce genre sont discutés par Lewis (Kew).
+Plusieurs espèces ont été transférées en 2016 dans les genres Biancaea, Cenostigma, Coulteria, Denisophytum, Erythrostemon, Gelrebia, Guilandina, Hoffmannseggia, Libidibia, Mezoneuron, Paubrasilia, Pomaria et Tara. Le nombre d'espèces et la description de ce genre sont discutés par Lewis (Kew).
 Une espèce bien connue est Caesalpinia pulcherrima, une des espèces d'arbres appelées flamboyant.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Caesalpinia cassioides Willd., 1809
 Caesalpinia crista L.
